--- a/MSP_Projekt_2022-23_Zadani_St_8 (1).xlsx
+++ b/MSP_Projekt_2022-23_Zadani_St_8 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\1MIT_Winter\MSP\projekt\MSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0621F92E-BC67-41AE-8D8A-B9AE5F544CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50FB2B0-84F6-4B52-A200-337146191EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadání" sheetId="3" r:id="rId1"/>
@@ -834,7 +834,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="normální 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="normální 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="normální 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1251,7 +1251,7 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1263,17 +1263,18 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>16</v>
@@ -1300,7 +1301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
@@ -1355,10 +1356,10 @@
         <v>87</v>
       </c>
       <c r="I3" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
@@ -1384,10 +1385,10 @@
         <v>65</v>
       </c>
       <c r="I4" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>26</v>
       </c>
@@ -1413,10 +1414,10 @@
         <v>31</v>
       </c>
       <c r="I5" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>27</v>
       </c>
@@ -1449,11 +1450,11 @@
         <v>32</v>
       </c>
       <c r="I6" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>29</v>
       </c>
@@ -1471,14 +1472,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -1866,14 +1867,14 @@
       <selection activeCell="AM74" sqref="AM74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>-62.73</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>0</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>0</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>-63.1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>-29.34</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>0</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>50.66</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>46.47</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>-6.38</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>2.2222222222222223</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>-12.71</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>-51.76</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>-51.23</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>4.4444444444444446</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>-13.81</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>22.13</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>45.28</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>-21.03</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>-39.369999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>-26.36</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>-16.739999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>6.666666666666667</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>17.809999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>36.729999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>-56.4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>-28.46</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>-32.369999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>8.8888888888888893</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>-19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>-46.42</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>-64.92</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>-41.93</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>-62.71</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>-88.36</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>11.111111111111111</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>50.23</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>-33.36</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>-103.5</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>-74.97</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>-68.510000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>-85.16</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>-8.32</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>13.333333333333334</v>
       </c>
@@ -7787,7 +7788,7 @@
         <v>-14.34</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>-105.28</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>-163.59</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>-130.46</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>-112.79</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>-111.85</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>-115.79</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>15.555555555555555</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>-162</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>-143</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>-92.85</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>-178.73</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>-182.42</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>-195.42</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>-146.9</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>17.777777777777779</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>-181.67</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>20</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>-195.92</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>20</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>-209.51</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>20</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>-277.01</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>20</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>-222.58</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>20</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>-271.27</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>20</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>-293.8</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>20</v>
       </c>
